--- a/dashboard_loader/education_participation_uploader/education_participation.xlsx
+++ b/dashboard_loader/education_participation_uploader/education_participation.xlsx
@@ -280,7 +280,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/dashboard_loader/education_participation_uploader/education_participation.xlsx
+++ b/dashboard_loader/education_participation_uploader/education_participation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -107,13 +107,19 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">People who were in school level education are excluded.</t>
+    <t xml:space="preserve">People who were in school level education are excluded. </t>
   </si>
   <si>
     <t xml:space="preserve">Prior to 2009, the SEW was not conducted in very remote areas. Since 2009, very remote areas have been sampled, however, Indigenous communities in very remote areas are excluded, which affects the comparability of Northern Territory results.</t>
   </si>
   <si>
-    <t xml:space="preserve">People permanently unable to work are excluded from the in-scope population.</t>
+    <t xml:space="preserve">People permanently unable to work are excluded from the in-scope population.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS unpublished, 2006 Census of Population and Housing and 2011 Census of Population and Housing.</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="#########\ ###\ ##0.0;\-#########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -149,7 +155,88 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -161,20 +248,77 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -185,7 +329,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,66 +353,194 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -279,15 +551,15 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,17 +901,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,20 +966,28 @@
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
